--- a/스크래핑/스크래핑_이우영/다이렉트 참좋은 치아사랑보험 2101_15년.xlsx
+++ b/스크래핑/스크래핑_이우영/다이렉트 참좋은 치아사랑보험 2101_15년.xlsx
@@ -9,12 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="15년 실속" sheetId="2" r:id="rId1"/>
-    <sheet name="15년 일반" sheetId="3" r:id="rId2"/>
-    <sheet name="15년 고급" sheetId="4" r:id="rId3"/>
+    <sheet name="15년 실속A" sheetId="2" r:id="rId1"/>
+    <sheet name="15년 실속B" sheetId="6" r:id="rId2"/>
+    <sheet name="15년 실속C" sheetId="9" r:id="rId3"/>
+    <sheet name="15년 일반A" sheetId="3" r:id="rId4"/>
+    <sheet name="15년 일반B" sheetId="8" r:id="rId5"/>
+    <sheet name="15년 일반 C" sheetId="10" r:id="rId6"/>
+    <sheet name="15년 고급A" sheetId="4" r:id="rId7"/>
+    <sheet name="15년 고급B" sheetId="11" r:id="rId8"/>
+    <sheet name="15년 고급C" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="34">
   <si>
     <t>E10021</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,12 +193,54 @@
     <t>보장(보험)개시일(일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>E10047</t>
+  </si>
+  <si>
+    <t>E10047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10050</t>
+  </si>
+  <si>
+    <t>E10050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10059</t>
+  </si>
+  <si>
+    <t>E10053</t>
+  </si>
+  <si>
+    <t>E10053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10062</t>
+  </si>
+  <si>
+    <t>E10062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10056</t>
+  </si>
+  <si>
+    <t>E10056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +303,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,10 +682,10 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="11"/>
     <col min="2" max="2" width="4.5" style="9" customWidth="1"/>
@@ -640,7 +697,7 @@
     <col min="9" max="12" width="8.796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.799999999999997">
+    <row r="1" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -669,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -698,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -727,7 +784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -756,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -785,7 +842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -814,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -843,7 +900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -872,7 +929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
@@ -901,7 +958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -930,7 +987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -959,7 +1016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -988,7 +1045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -1017,243 +1074,54 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <v>50</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12">
-        <v>41280</v>
-      </c>
-      <c r="E14" s="11">
-        <v>15</v>
-      </c>
-      <c r="F14" s="11">
-        <v>15</v>
-      </c>
-      <c r="G14" s="12">
-        <v>90</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1062600</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11">
-        <v>50</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12">
-        <v>41150</v>
-      </c>
-      <c r="E15" s="11">
-        <v>15</v>
-      </c>
-      <c r="F15" s="11">
-        <v>15</v>
-      </c>
-      <c r="G15" s="12">
-        <v>90</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1059300</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="11">
-        <v>55</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13">
-        <v>31990</v>
-      </c>
-      <c r="E16" s="11">
-        <v>15</v>
-      </c>
-      <c r="F16" s="11">
-        <v>15</v>
-      </c>
-      <c r="G16" s="12">
-        <v>90</v>
-      </c>
-      <c r="H16" s="11">
-        <v>823500</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8">
-        <v>55</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="13">
-        <v>30130</v>
-      </c>
-      <c r="E17" s="11">
-        <v>15</v>
-      </c>
-      <c r="F17" s="11">
-        <v>15</v>
-      </c>
-      <c r="G17" s="12">
-        <v>90</v>
-      </c>
-      <c r="H17" s="11">
-        <v>775600</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8">
-        <v>60</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13">
-        <v>33520</v>
-      </c>
-      <c r="E18" s="11">
-        <v>15</v>
-      </c>
-      <c r="F18" s="11">
-        <v>15</v>
-      </c>
-      <c r="G18" s="12">
-        <v>90</v>
-      </c>
-      <c r="H18" s="11">
-        <v>862900</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="8">
-        <v>60</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="13">
-        <v>30370</v>
-      </c>
-      <c r="E19" s="11">
-        <v>15</v>
-      </c>
-      <c r="F19" s="11">
-        <v>15</v>
-      </c>
-      <c r="G19" s="12">
-        <v>90</v>
-      </c>
-      <c r="H19" s="11">
-        <v>781800</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="8">
-        <v>65</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13">
-        <v>19060</v>
-      </c>
-      <c r="E20" s="11">
-        <v>15</v>
-      </c>
-      <c r="F20" s="11">
-        <v>15</v>
-      </c>
-      <c r="G20" s="12">
-        <v>90</v>
-      </c>
-      <c r="H20" s="11">
-        <v>490700</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="8">
-        <v>65</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="13">
-        <v>17080</v>
-      </c>
-      <c r="E21" s="11">
-        <v>15</v>
-      </c>
-      <c r="F21" s="11">
-        <v>15</v>
-      </c>
-      <c r="G21" s="12">
-        <v>90</v>
-      </c>
-      <c r="H21" s="11">
-        <v>439700</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="11"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="11"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="13"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
@@ -1265,13 +1133,435 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="11"/>
+    <col min="2" max="2" width="4.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.796875" style="11"/>
+    <col min="7" max="7" width="19.8984375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="11"/>
+    <col min="9" max="12" width="8.796875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>41280</v>
+      </c>
+      <c r="E2" s="11">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12">
+        <v>90</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1062600</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12">
+        <v>41150</v>
+      </c>
+      <c r="E3" s="11">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12">
+        <v>90</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1059300</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>31990</v>
+      </c>
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12">
+        <v>90</v>
+      </c>
+      <c r="H4" s="11">
+        <v>823500</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8">
+        <v>55</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13">
+        <v>30130</v>
+      </c>
+      <c r="E5" s="11">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12">
+        <v>90</v>
+      </c>
+      <c r="H5" s="11">
+        <v>775600</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="11"/>
+    <col min="2" max="2" width="4.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.796875" style="11"/>
+    <col min="7" max="7" width="19.8984375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="11"/>
+    <col min="9" max="12" width="8.796875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>33520</v>
+      </c>
+      <c r="E2" s="11">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12">
+        <v>90</v>
+      </c>
+      <c r="H2" s="11">
+        <v>862900</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13">
+        <v>30370</v>
+      </c>
+      <c r="E3" s="11">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12">
+        <v>90</v>
+      </c>
+      <c r="H3" s="11">
+        <v>781800</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="8">
+        <v>65</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>19060</v>
+      </c>
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12">
+        <v>90</v>
+      </c>
+      <c r="H4" s="11">
+        <v>490700</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13">
+        <v>17080</v>
+      </c>
+      <c r="E5" s="11">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12">
+        <v>90</v>
+      </c>
+      <c r="H5" s="11">
+        <v>439700</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="4"/>
     <col min="2" max="2" width="4.5" style="20" customWidth="1"/>
@@ -1280,7 +1570,7 @@
     <col min="9" max="16384" width="8.796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1367,7 +1657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1512,7 +1802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +1831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1657,262 +1947,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>59140</v>
-      </c>
-      <c r="E14" s="4">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4">
-        <v>90</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1522300</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>57420</v>
-      </c>
-      <c r="E15" s="4">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4">
-        <v>90</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1478000</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>55</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>34250</v>
-      </c>
-      <c r="E16" s="4">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4">
-        <v>90</v>
-      </c>
-      <c r="H16" s="4">
-        <v>881600</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="16">
-        <v>55</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="16">
-        <v>32180</v>
-      </c>
-      <c r="E17" s="4">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4">
-        <v>90</v>
-      </c>
-      <c r="H17" s="4">
-        <v>828400</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="16">
-        <v>60</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16">
-        <v>35810</v>
-      </c>
-      <c r="E18" s="4">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4">
-        <v>90</v>
-      </c>
-      <c r="H18" s="4">
-        <v>921800</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="16">
-        <v>60</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="16">
-        <v>32380</v>
-      </c>
-      <c r="E19" s="4">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4">
-        <v>90</v>
-      </c>
-      <c r="H19" s="4">
-        <v>833500</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="16">
-        <v>65</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="16">
-        <v>21230</v>
-      </c>
-      <c r="E20" s="4">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4">
-        <v>15</v>
-      </c>
-      <c r="G20" s="4">
-        <v>90</v>
-      </c>
-      <c r="H20" s="4">
-        <v>546500</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="16">
-        <v>65</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="16">
-        <v>18890</v>
-      </c>
-      <c r="E21" s="4">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4">
-        <v>90</v>
-      </c>
-      <c r="H21" s="4">
-        <v>486300</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" s="18"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29" s="18"/>
     </row>
   </sheetData>
@@ -1921,15 +1979,424 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="4"/>
+    <col min="2" max="2" width="4.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="19" customWidth="1"/>
+    <col min="4" max="8" width="8.796875" style="4"/>
+    <col min="9" max="16384" width="8.796875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>59140</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1522300</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>57420</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1478000</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>34250</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>90</v>
+      </c>
+      <c r="H4" s="4">
+        <v>881600</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="16">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>32180</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4">
+        <v>828400</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="16">
+        <v>60</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>35810</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4">
+        <v>921800</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="16">
+        <v>60</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16">
+        <v>32380</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4">
+        <v>833500</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="16">
+        <v>65</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>21230</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>90</v>
+      </c>
+      <c r="H4" s="4">
+        <v>546500</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="16">
+        <v>65</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>18890</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4">
+        <v>486300</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="3"/>
     <col min="2" max="2" width="4.5" style="7" customWidth="1"/>
@@ -1939,7 +2406,7 @@
     <col min="8" max="8" width="19.796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +2435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1997,7 +2464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2026,7 +2493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -2055,7 +2522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2084,7 +2551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2142,7 +2609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2171,7 +2638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -2229,7 +2696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2258,7 +2725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -2287,7 +2754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2316,263 +2783,353 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>61390</v>
-      </c>
-      <c r="E14" s="4">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4">
-        <v>90</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1580200</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>59910</v>
-      </c>
-      <c r="E15" s="4">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4">
-        <v>90</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1542100</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>55</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>34960</v>
-      </c>
-      <c r="E16" s="4">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4">
-        <v>90</v>
-      </c>
-      <c r="H16" s="4">
-        <v>899900</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="16">
-        <v>55</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="16">
-        <v>33020</v>
-      </c>
-      <c r="E17" s="4">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4">
-        <v>90</v>
-      </c>
-      <c r="H17" s="4">
-        <v>850000</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="16">
-        <v>60</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16">
-        <v>36570</v>
-      </c>
-      <c r="E18" s="4">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4">
-        <v>90</v>
-      </c>
-      <c r="H18" s="4">
-        <v>941400</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="16">
-        <v>60</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="16">
-        <v>33250</v>
-      </c>
-      <c r="E19" s="4">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4">
-        <v>90</v>
-      </c>
-      <c r="H19" s="4">
-        <v>855900</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="16">
-        <v>65</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="16">
-        <v>22040</v>
-      </c>
-      <c r="E20" s="4">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4">
-        <v>15</v>
-      </c>
-      <c r="G20" s="4">
-        <v>90</v>
-      </c>
-      <c r="H20" s="4">
-        <v>567400</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="16">
-        <v>65</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="16">
-        <v>19810</v>
-      </c>
-      <c r="E21" s="4">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4">
-        <v>90</v>
-      </c>
-      <c r="H21" s="4">
-        <v>510000</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>61390</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1580200</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>59910</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1542100</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>34960</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>90</v>
+      </c>
+      <c r="H4" s="4">
+        <v>899900</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="16">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>33020</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4">
+        <v>850000</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="16">
+        <v>60</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>36570</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4">
+        <v>941400</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="16">
+        <v>60</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16">
+        <v>33250</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4">
+        <v>855900</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="16">
+        <v>65</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>22040</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>90</v>
+      </c>
+      <c r="H4" s="4">
+        <v>567400</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="16">
+        <v>65</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>19810</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4">
+        <v>510000</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
